--- a/Skill Matrix(1-2).xlsx
+++ b/Skill Matrix(1-2).xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">Work Ethic </t>
-  </si>
-  <si>
-    <t>Basic Communication</t>
   </si>
   <si>
     <t>Reliability</t>
@@ -210,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,25 +215,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -383,19 +390,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AS3" totalsRowShown="0">
-  <autoFilter ref="A1:AS3"/>
-  <tableColumns count="45">
-    <tableColumn id="1" name="ID" dataDxfId="44"/>
-    <tableColumn id="2" name="Start time" dataDxfId="43"/>
-    <tableColumn id="3" name="Completion time" dataDxfId="42"/>
-    <tableColumn id="4" name="Email" dataDxfId="41"/>
-    <tableColumn id="5" name="Name" dataDxfId="40"/>
-    <tableColumn id="6" name="Please Enter the Password " dataDxfId="39"/>
-    <tableColumn id="7" name="Discipline" dataDxfId="38"/>
-    <tableColumn id="8" name="Punctual, Time Management" dataDxfId="37"/>
-    <tableColumn id="9" name="Work Ethic " dataDxfId="36"/>
-    <tableColumn id="10" name="Basic Communication" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR4" totalsRowShown="0">
+  <autoFilter ref="A1:AR4"/>
+  <tableColumns count="44">
+    <tableColumn id="1" name="ID" dataDxfId="43"/>
+    <tableColumn id="2" name="Start time" dataDxfId="42"/>
+    <tableColumn id="3" name="Completion time" dataDxfId="41"/>
+    <tableColumn id="4" name="Email" dataDxfId="40"/>
+    <tableColumn id="5" name="Name" dataDxfId="39"/>
+    <tableColumn id="6" name="Please Enter the Password " dataDxfId="38"/>
+    <tableColumn id="7" name="Discipline" dataDxfId="37"/>
+    <tableColumn id="8" name="Punctual, Time Management" dataDxfId="36"/>
+    <tableColumn id="9" name="Work Ethic " dataDxfId="35"/>
     <tableColumn id="11" name="Reliability" dataDxfId="34"/>
     <tableColumn id="12" name="Commitment" dataDxfId="33"/>
     <tableColumn id="13" name="Team work" dataDxfId="32"/>
@@ -733,155 +739,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="45" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="44" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,15 +894,9 @@
       <c r="C2" s="2">
         <v>44900.682094907403</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2">
         <v>5</v>
       </c>
@@ -909,116 +906,113 @@
       <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>5</v>
-      </c>
-      <c r="V2">
-        <v>5</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>4</v>
-      </c>
-      <c r="AB2">
-        <v>4</v>
-      </c>
-      <c r="AC2">
-        <v>5</v>
-      </c>
-      <c r="AD2">
-        <v>4</v>
-      </c>
-      <c r="AE2">
-        <v>5</v>
-      </c>
-      <c r="AF2">
-        <v>5</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>3</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2">
-        <v>3</v>
-      </c>
-      <c r="AO2">
-        <v>4</v>
-      </c>
-      <c r="AP2">
-        <v>3</v>
-      </c>
-      <c r="AQ2">
-        <v>5</v>
+      <c r="J2" s="4">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <v>3</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4">
+        <v>2</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>2</v>
       </c>
       <c r="AR2">
-        <v>5</v>
-      </c>
-      <c r="AS2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1028,137 +1022,269 @@
       <c r="C3" s="2">
         <v>44901.4699189815</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>5</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>5</v>
+      </c>
+      <c r="AL3">
+        <v>5</v>
+      </c>
+      <c r="AM3">
+        <v>5</v>
+      </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
+      <c r="AO3">
+        <v>5</v>
+      </c>
+      <c r="AP3">
+        <v>5</v>
+      </c>
+      <c r="AQ3">
+        <v>5</v>
+      </c>
+      <c r="AR3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44901.4672222222</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="U3">
-        <v>4</v>
-      </c>
-      <c r="V3">
-        <v>5</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>4</v>
-      </c>
-      <c r="Y3">
-        <v>4</v>
-      </c>
-      <c r="Z3">
-        <v>4</v>
-      </c>
-      <c r="AA3">
-        <v>4</v>
-      </c>
-      <c r="AB3">
-        <v>5</v>
-      </c>
-      <c r="AC3">
-        <v>5</v>
-      </c>
-      <c r="AD3">
-        <v>5</v>
-      </c>
-      <c r="AE3">
-        <v>5</v>
-      </c>
-      <c r="AF3">
-        <v>4</v>
-      </c>
-      <c r="AG3">
-        <v>5</v>
-      </c>
-      <c r="AH3">
-        <v>5</v>
-      </c>
-      <c r="AI3">
-        <v>5</v>
-      </c>
-      <c r="AJ3">
-        <v>4</v>
-      </c>
-      <c r="AK3">
-        <v>5</v>
-      </c>
-      <c r="AL3">
-        <v>5</v>
-      </c>
-      <c r="AM3">
-        <v>5</v>
-      </c>
-      <c r="AN3">
-        <v>5</v>
-      </c>
-      <c r="AO3">
-        <v>5</v>
-      </c>
-      <c r="AP3">
-        <v>5</v>
-      </c>
-      <c r="AQ3">
-        <v>5</v>
-      </c>
-      <c r="AR3">
-        <v>5</v>
-      </c>
-      <c r="AS3">
-        <v>5</v>
-      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>3</v>
+      </c>
+      <c r="AN4">
+        <v>4</v>
+      </c>
+      <c r="AO4">
+        <v>3</v>
+      </c>
+      <c r="AP4">
+        <v>5</v>
+      </c>
+      <c r="AQ4">
+        <v>5</v>
+      </c>
+      <c r="AR4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="47:47" x14ac:dyDescent="0.35">
+      <c r="AU17" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Skill Matrix(1-2).xlsx
+++ b/Skill Matrix(1-2).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>TONYA@tbdir.net</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>vds</t>
+  </si>
+  <si>
+    <t>vs</t>
   </si>
 </sst>
 </file>
@@ -742,7 +751,7 @@
   <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,9 +903,15 @@
       <c r="C2" s="2">
         <v>44900.682094907403</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G2">
         <v>5</v>
       </c>
